--- a/Automato/tab_transicoes.xlsx
+++ b/Automato/tab_transicoes.xlsx
@@ -20,21 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
-    <t xml:space="preserve">Brancos: \n \t space</t>
+    <t xml:space="preserve">Brancos:  \t space</t>
   </si>
   <si>
     <t xml:space="preserve">Estados/Entrada</t>
   </si>
   <si>
-    <t xml:space="preserve">space</t>
+    <t xml:space="preserve">Branco</t>
   </si>
   <si>
     <t xml:space="preserve">\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\t</t>
   </si>
   <si>
     <t xml:space="preserve">letra</t>
@@ -535,18 +532,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="9.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="8" style="1" width="9.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="8" style="1" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,10 +621,7 @@
       <c r="AB1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="0"/>
+      <c r="AC1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5"/>
@@ -646,66 +640,63 @@
         <v>0</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="M2" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="N2" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AD2" s="0"/>
+      <c r="AC2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -724,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="3" t="n">
         <v>1</v>
@@ -733,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="3" t="n">
         <v>2</v>
@@ -780,13 +771,10 @@
       <c r="AB3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AC3" s="3" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -817,7 +805,6 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
@@ -836,22 +823,22 @@
         <v>4</v>
       </c>
       <c r="J5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3" t="n">
         <v>4</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>3</v>
       </c>
       <c r="M5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="N5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" s="3" t="n">
         <v>4</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>6</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>4</v>
@@ -892,13 +879,10 @@
       <c r="AB5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="AC5" s="3" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -929,11 +913,10 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -964,7 +947,6 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
@@ -983,13 +965,13 @@
         <v>7</v>
       </c>
       <c r="J8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3" t="n">
         <v>7</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>6</v>
       </c>
       <c r="M8" s="3" t="n">
         <v>7</v>
@@ -1039,13 +1021,10 @@
       <c r="AB8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AC8" s="3" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1076,11 +1055,10 @@
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1111,7 +1089,6 @@
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
@@ -1130,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K11" s="3" t="n">
         <v>10</v>
@@ -1184,9 +1161,6 @@
         <v>10</v>
       </c>
       <c r="AB11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC11" s="3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1263,9 +1237,6 @@
       <c r="AB12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AC12" s="3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
@@ -1293,10 +1264,10 @@
         <v>11</v>
       </c>
       <c r="M13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" s="3" t="n">
         <v>11</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v>12</v>
       </c>
       <c r="O13" s="3" t="n">
         <v>11</v>
@@ -1335,18 +1306,15 @@
         <v>11</v>
       </c>
       <c r="AA13" s="3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB13" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="3" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1377,11 +1345,10 @@
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1412,11 +1379,10 @@
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1447,11 +1413,10 @@
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1482,11 +1447,10 @@
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1517,11 +1481,10 @@
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1552,7 +1515,6 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
@@ -1616,18 +1578,15 @@
         <v>20</v>
       </c>
       <c r="Y20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z20" s="3" t="n">
         <v>20</v>
-      </c>
-      <c r="Z20" s="3" t="n">
-        <v>19</v>
       </c>
       <c r="AA20" s="3" t="n">
         <v>20</v>
       </c>
       <c r="AB20" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC20" s="3" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1693,24 +1652,21 @@
         <v>19</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z21" s="3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA21" s="3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB21" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC21" s="3" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1741,7 +1697,6 @@
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
@@ -1784,10 +1739,10 @@
         <v>19</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S23" s="3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T23" s="3" t="n">
         <v>19</v>
@@ -1805,18 +1760,15 @@
         <v>19</v>
       </c>
       <c r="Y23" s="3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z23" s="3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA23" s="3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB23" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC23" s="3" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1893,9 +1845,6 @@
       <c r="AB24" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AC24" s="3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
@@ -1970,13 +1919,10 @@
       <c r="AB25" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="AC25" s="8" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2007,7 +1953,6 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
@@ -2059,19 +2004,19 @@
         <v>29</v>
       </c>
       <c r="U27" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="V27" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="W27" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="V27" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="W27" s="3" t="n">
-        <v>27</v>
-      </c>
       <c r="X27" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y27" s="3" t="n">
         <v>29</v>
-      </c>
-      <c r="Y27" s="3" t="n">
-        <v>26</v>
       </c>
       <c r="Z27" s="3" t="n">
         <v>29</v>
@@ -2082,13 +2027,10 @@
       <c r="AB27" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AC27" s="3" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2119,11 +2061,10 @@
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2154,11 +2095,10 @@
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2189,11 +2129,10 @@
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2224,11 +2163,10 @@
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2259,7 +2197,6 @@
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
@@ -2311,10 +2248,10 @@
         <v>33</v>
       </c>
       <c r="U33" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="V33" s="3" t="n">
         <v>33</v>
-      </c>
-      <c r="V33" s="3" t="n">
-        <v>32</v>
       </c>
       <c r="W33" s="3" t="n">
         <v>33</v>
@@ -2334,13 +2271,10 @@
       <c r="AB33" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AC33" s="3" t="n">
-        <v>33</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2371,11 +2305,10 @@
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2406,7 +2339,6 @@
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
@@ -2464,10 +2396,10 @@
         <v>36</v>
       </c>
       <c r="W36" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="X36" s="3" t="n">
         <v>36</v>
-      </c>
-      <c r="X36" s="3" t="n">
-        <v>35</v>
       </c>
       <c r="Y36" s="3" t="n">
         <v>36</v>
@@ -2481,13 +2413,10 @@
       <c r="AB36" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AC36" s="3" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2518,11 +2447,10 @@
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
-      <c r="AC37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2553,7 +2481,6 @@
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
-      <c r="AC38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
@@ -2614,10 +2541,10 @@
         <v>39</v>
       </c>
       <c r="X39" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y39" s="3" t="n">
         <v>39</v>
-      </c>
-      <c r="Y39" s="3" t="n">
-        <v>38</v>
       </c>
       <c r="Z39" s="3" t="n">
         <v>39</v>
@@ -2628,13 +2555,10 @@
       <c r="AB39" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AC39" s="3" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2665,11 +2589,10 @@
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
-      <c r="AC40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2700,11 +2623,10 @@
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
-      <c r="AC41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2735,7 +2657,6 @@
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
-      <c r="AC42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
@@ -2799,18 +2720,15 @@
         <v>43</v>
       </c>
       <c r="Y43" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z43" s="3" t="n">
         <v>43</v>
-      </c>
-      <c r="Z43" s="3" t="n">
-        <v>42</v>
       </c>
       <c r="AA43" s="3" t="n">
         <v>43</v>
       </c>
       <c r="AB43" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="AC43" s="3" t="n">
         <v>43</v>
       </c>
     </row>
@@ -2882,18 +2800,15 @@
         <v>42</v>
       </c>
       <c r="AA44" s="8" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AB44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="8" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2924,11 +2839,10 @@
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
-      <c r="AC45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2936,7 +2850,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -2959,7 +2873,6 @@
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
-      <c r="AC46" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="46">

--- a/Automato/tab_transicoes.xlsx
+++ b/Automato/tab_transicoes.xlsx
@@ -104,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -129,87 +129,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -217,7 +136,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,50 +145,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -279,27 +156,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -325,7 +187,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,55 +211,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -410,74 +224,58 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="3" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFA9D18E"/>
@@ -485,11 +283,11 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -505,7 +303,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -517,11 +315,11 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF3F3F3F"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -534,16 +332,16 @@
   </sheetPr>
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S23" activeCellId="0" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="9.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="8" style="1" width="9.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.05"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1022" min="8" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,10 +1537,10 @@
         <v>19</v>
       </c>
       <c r="R23" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="S23" s="3" t="n">
         <v>22</v>
-      </c>
-      <c r="S23" s="3" t="n">
-        <v>19</v>
       </c>
       <c r="T23" s="3" t="n">
         <v>19</v>

--- a/Automato/tab_transicoes.xlsx
+++ b/Automato/tab_transicoes.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KramerPh\Documents\Compiladores\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,89 +26,86 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
-    <t xml:space="preserve">Brancos:  \t space</t>
+    <t>Brancos:  \t space</t>
   </si>
   <si>
-    <t xml:space="preserve">Estados/Entrada</t>
+    <t>Estados/Entrada</t>
   </si>
   <si>
-    <t xml:space="preserve">Branco</t>
+    <t>Branco</t>
   </si>
   <si>
-    <t xml:space="preserve">\n</t>
+    <t>\n</t>
   </si>
   <si>
-    <t xml:space="preserve">letra</t>
+    <t>letra</t>
   </si>
   <si>
-    <t xml:space="preserve">digito</t>
+    <t>digito</t>
   </si>
   <si>
-    <t xml:space="preserve">_</t>
+    <t>_</t>
   </si>
   <si>
-    <t xml:space="preserve">"</t>
+    <t>"</t>
   </si>
   <si>
-    <t xml:space="preserve">.</t>
+    <t>.</t>
   </si>
   <si>
-    <t xml:space="preserve">,</t>
+    <t>,</t>
   </si>
   <si>
-    <t xml:space="preserve">;</t>
+    <t>;</t>
   </si>
   <si>
-    <t xml:space="preserve">:</t>
+    <t>:</t>
   </si>
   <si>
-    <t xml:space="preserve">(</t>
+    <t>(</t>
   </si>
   <si>
-    <t xml:space="preserve">)</t>
+    <t>)</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;</t>
+    <t>&lt;</t>
   </si>
   <si>
-    <t xml:space="preserve">=</t>
+    <t>=</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;</t>
+    <t>&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">+</t>
+    <t>+</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
+    <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">*</t>
+    <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">/</t>
+    <t>/</t>
   </si>
   <si>
-    <t xml:space="preserve">EOF</t>
+    <t>EOF</t>
   </si>
   <si>
-    <t xml:space="preserve">outro</t>
+    <t>outro</t>
   </si>
   <si>
-    <t xml:space="preserve">final</t>
+    <t>final</t>
   </si>
   <si>
-    <t xml:space="preserve">H</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -113,22 +114,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -146,7 +132,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -157,14 +143,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -179,103 +165,73 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Texto Explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFA9D18E"/>
@@ -283,11 +239,11 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -303,7 +259,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -315,271 +271,579 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF3F3F3F"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AC46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMH46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S23" activeCellId="0" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="R22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1022" min="8" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.77551020408163"/>
+    <col min="1" max="6" width="9" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="4" customWidth="1"/>
+    <col min="8" max="1022" width="9" style="4" customWidth="1"/>
+    <col min="1023" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="n">
+      <c r="AC1"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="5">
         <v>3</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="5">
         <v>44</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="5">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="5">
         <v>9</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="5">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="5">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="5">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="5">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="5">
         <v>24</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="5">
         <v>25</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="5">
         <v>30</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="5">
         <v>31</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="5">
         <v>34</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="X2" s="5">
         <v>37</v>
       </c>
-      <c r="Y2" s="3" t="n">
+      <c r="Y2" s="5">
         <v>40</v>
       </c>
-      <c r="Z2" s="3" t="n">
+      <c r="Z2" s="5">
         <v>41</v>
       </c>
-      <c r="AA2" s="3" t="n">
+      <c r="AA2" s="5">
         <v>14</v>
       </c>
-      <c r="AB2" s="3" t="n">
+      <c r="AB2" s="5">
         <v>44</v>
       </c>
-      <c r="AC2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4" t="n">
+      <c r="AC2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="5">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="5">
         <v>2</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="5">
         <v>1</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="5">
         <v>1</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="5">
         <v>2</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="5">
         <v>2</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="5">
         <v>2</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="5">
         <v>2</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="5">
         <v>2</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="5">
         <v>2</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="5">
         <v>2</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="T3" s="5">
         <v>2</v>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="U3" s="5">
         <v>2</v>
       </c>
-      <c r="V3" s="3" t="n">
+      <c r="V3" s="5">
         <v>2</v>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="5">
         <v>2</v>
       </c>
-      <c r="X3" s="3" t="n">
+      <c r="X3" s="5">
         <v>2</v>
       </c>
-      <c r="Y3" s="3" t="n">
+      <c r="Y3" s="5">
         <v>2</v>
       </c>
-      <c r="Z3" s="3" t="n">
+      <c r="Z3" s="5">
         <v>2</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="5">
         <v>2</v>
       </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AB3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4" t="n">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="6">
         <v>2</v>
       </c>
       <c r="H4" s="7"/>
@@ -604,90 +868,90 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4" t="n">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6">
         <v>3</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="5">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="5">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="5">
         <v>5</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="5">
         <v>3</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="5">
         <v>4</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="5">
         <v>4</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="5">
         <v>6</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="5">
         <v>4</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P5" s="5">
         <v>4</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q5" s="5">
         <v>4</v>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="R5" s="5">
         <v>4</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="S5" s="5">
         <v>4</v>
       </c>
-      <c r="T5" s="3" t="n">
+      <c r="T5" s="5">
         <v>4</v>
       </c>
-      <c r="U5" s="3" t="n">
+      <c r="U5" s="5">
         <v>4</v>
       </c>
-      <c r="V5" s="3" t="n">
+      <c r="V5" s="5">
         <v>4</v>
       </c>
-      <c r="W5" s="3" t="n">
+      <c r="W5" s="5">
         <v>4</v>
       </c>
-      <c r="X5" s="3" t="n">
+      <c r="X5" s="5">
         <v>4</v>
       </c>
-      <c r="Y5" s="3" t="n">
+      <c r="Y5" s="5">
         <v>4</v>
       </c>
-      <c r="Z5" s="3" t="n">
+      <c r="Z5" s="5">
         <v>4</v>
       </c>
-      <c r="AA5" s="3" t="n">
+      <c r="AA5" s="5">
         <v>4</v>
       </c>
-      <c r="AB5" s="3" t="n">
+      <c r="AB5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4" t="n">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="6">
         <v>4</v>
       </c>
       <c r="H6" s="7"/>
@@ -712,16 +976,16 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4" t="n">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="6">
         <v>5</v>
       </c>
       <c r="H7" s="7"/>
@@ -746,90 +1010,90 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4" t="n">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="6">
         <v>6</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="5">
         <v>7</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="5">
         <v>7</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="5">
         <v>8</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="5">
         <v>6</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="L8" s="5">
         <v>7</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="5">
         <v>7</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="5">
         <v>7</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="5">
         <v>7</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="P8" s="5">
         <v>7</v>
       </c>
-      <c r="Q8" s="3" t="n">
+      <c r="Q8" s="5">
         <v>7</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="5">
         <v>7</v>
       </c>
-      <c r="S8" s="3" t="n">
+      <c r="S8" s="5">
         <v>7</v>
       </c>
-      <c r="T8" s="3" t="n">
+      <c r="T8" s="5">
         <v>7</v>
       </c>
-      <c r="U8" s="3" t="n">
+      <c r="U8" s="5">
         <v>7</v>
       </c>
-      <c r="V8" s="3" t="n">
+      <c r="V8" s="5">
         <v>7</v>
       </c>
-      <c r="W8" s="3" t="n">
+      <c r="W8" s="5">
         <v>7</v>
       </c>
-      <c r="X8" s="3" t="n">
+      <c r="X8" s="5">
         <v>7</v>
       </c>
-      <c r="Y8" s="3" t="n">
+      <c r="Y8" s="5">
         <v>7</v>
       </c>
-      <c r="Z8" s="3" t="n">
+      <c r="Z8" s="5">
         <v>7</v>
       </c>
-      <c r="AA8" s="3" t="n">
+      <c r="AA8" s="5">
         <v>7</v>
       </c>
-      <c r="AB8" s="3" t="n">
+      <c r="AB8" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4" t="n">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="6">
         <v>7</v>
       </c>
       <c r="H9" s="7"/>
@@ -854,16 +1118,16 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4" t="n">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="6">
         <v>8</v>
       </c>
       <c r="H10" s="7"/>
@@ -888,238 +1152,238 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4" t="n">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="6">
         <v>9</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="5">
         <v>10</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="5">
         <v>10</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="5">
         <v>6</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="5">
         <v>10</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="L11" s="5">
         <v>10</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="5">
         <v>10</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="N11" s="5">
         <v>10</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="5">
         <v>10</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="5">
         <v>10</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="5">
         <v>10</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="R11" s="5">
         <v>10</v>
       </c>
-      <c r="S11" s="3" t="n">
+      <c r="S11" s="5">
         <v>10</v>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="5">
         <v>10</v>
       </c>
-      <c r="U11" s="3" t="n">
+      <c r="U11" s="5">
         <v>10</v>
       </c>
-      <c r="V11" s="3" t="n">
+      <c r="V11" s="5">
         <v>10</v>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="5">
         <v>10</v>
       </c>
-      <c r="X11" s="3" t="n">
+      <c r="X11" s="5">
         <v>10</v>
       </c>
-      <c r="Y11" s="3" t="n">
+      <c r="Y11" s="5">
         <v>10</v>
       </c>
-      <c r="Z11" s="3" t="n">
+      <c r="Z11" s="5">
         <v>10</v>
       </c>
-      <c r="AA11" s="3" t="n">
+      <c r="AA11" s="5">
         <v>10</v>
       </c>
-      <c r="AB11" s="3" t="n">
+      <c r="AB11" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4" t="n">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="6">
         <v>10</v>
       </c>
-      <c r="H12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4" t="n">
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6">
         <v>11</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="5">
         <v>11</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="5">
         <v>13</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="5">
         <v>11</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="5">
         <v>11</v>
       </c>
-      <c r="L13" s="3" t="n">
+      <c r="L13" s="5">
         <v>11</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="5">
         <v>12</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="N13" s="5">
         <v>11</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="5">
         <v>11</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="P13" s="5">
         <v>11</v>
       </c>
-      <c r="Q13" s="3" t="n">
+      <c r="Q13" s="5">
         <v>11</v>
       </c>
-      <c r="R13" s="3" t="n">
+      <c r="R13" s="5">
         <v>11</v>
       </c>
-      <c r="S13" s="3" t="n">
+      <c r="S13" s="5">
         <v>11</v>
       </c>
-      <c r="T13" s="3" t="n">
+      <c r="T13" s="5">
         <v>11</v>
       </c>
-      <c r="U13" s="3" t="n">
+      <c r="U13" s="5">
         <v>11</v>
       </c>
-      <c r="V13" s="3" t="n">
+      <c r="V13" s="5">
         <v>11</v>
       </c>
-      <c r="W13" s="3" t="n">
+      <c r="W13" s="5">
         <v>11</v>
       </c>
-      <c r="X13" s="3" t="n">
+      <c r="X13" s="5">
         <v>11</v>
       </c>
-      <c r="Y13" s="3" t="n">
+      <c r="Y13" s="5">
         <v>11</v>
       </c>
-      <c r="Z13" s="3" t="n">
+      <c r="Z13" s="5">
         <v>11</v>
       </c>
-      <c r="AA13" s="3" t="n">
+      <c r="AA13" s="5">
         <v>13</v>
       </c>
-      <c r="AB13" s="3" t="n">
+      <c r="AB13" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4" t="n">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="6">
         <v>12</v>
       </c>
       <c r="H14" s="7"/>
@@ -1144,16 +1408,16 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4" t="n">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="6">
         <v>13</v>
       </c>
       <c r="H15" s="7"/>
@@ -1178,16 +1442,16 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4" t="n">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="6">
         <v>14</v>
       </c>
       <c r="H16" s="7"/>
@@ -1212,16 +1476,16 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4" t="n">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="6">
         <v>15</v>
       </c>
       <c r="H17" s="7"/>
@@ -1246,16 +1510,16 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4" t="n">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="6">
         <v>16</v>
       </c>
       <c r="H18" s="7"/>
@@ -1280,16 +1544,16 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4" t="n">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="6">
         <v>17</v>
       </c>
       <c r="H19" s="7"/>
@@ -1314,164 +1578,164 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4" t="n">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="6">
         <v>18</v>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="5">
         <v>20</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="5">
         <v>20</v>
       </c>
-      <c r="J20" s="3" t="n">
+      <c r="J20" s="5">
         <v>20</v>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="K20" s="5">
         <v>20</v>
       </c>
-      <c r="L20" s="3" t="n">
+      <c r="L20" s="5">
         <v>20</v>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="M20" s="5">
         <v>20</v>
       </c>
-      <c r="N20" s="3" t="n">
+      <c r="N20" s="5">
         <v>20</v>
       </c>
-      <c r="O20" s="3" t="n">
+      <c r="O20" s="5">
         <v>20</v>
       </c>
-      <c r="P20" s="3" t="n">
+      <c r="P20" s="5">
         <v>20</v>
       </c>
-      <c r="Q20" s="3" t="n">
+      <c r="Q20" s="5">
         <v>20</v>
       </c>
-      <c r="R20" s="3" t="n">
+      <c r="R20" s="5">
         <v>20</v>
       </c>
-      <c r="S20" s="3" t="n">
+      <c r="S20" s="5">
         <v>20</v>
       </c>
-      <c r="T20" s="3" t="n">
+      <c r="T20" s="5">
         <v>20</v>
       </c>
-      <c r="U20" s="3" t="n">
+      <c r="U20" s="5">
         <v>20</v>
       </c>
-      <c r="V20" s="3" t="n">
+      <c r="V20" s="5">
         <v>20</v>
       </c>
-      <c r="W20" s="3" t="n">
+      <c r="W20" s="5">
         <v>20</v>
       </c>
-      <c r="X20" s="3" t="n">
+      <c r="X20" s="5">
         <v>20</v>
       </c>
-      <c r="Y20" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z20" s="3" t="n">
+      <c r="Y20" s="5">
+        <v>19</v>
+      </c>
+      <c r="Z20" s="5">
         <v>20</v>
       </c>
-      <c r="AA20" s="3" t="n">
+      <c r="AA20" s="5">
         <v>20</v>
       </c>
-      <c r="AB20" s="3" t="n">
+      <c r="AB20" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="K21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="N21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="O21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="P21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="R21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="S21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="T21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="U21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="V21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="W21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="X21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y21" s="3" t="n">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="6">
+        <v>19</v>
+      </c>
+      <c r="H21" s="5">
+        <v>19</v>
+      </c>
+      <c r="I21" s="5">
+        <v>19</v>
+      </c>
+      <c r="J21" s="5">
+        <v>19</v>
+      </c>
+      <c r="K21" s="5">
+        <v>19</v>
+      </c>
+      <c r="L21" s="5">
+        <v>19</v>
+      </c>
+      <c r="M21" s="5">
+        <v>19</v>
+      </c>
+      <c r="N21" s="5">
+        <v>19</v>
+      </c>
+      <c r="O21" s="5">
+        <v>19</v>
+      </c>
+      <c r="P21" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>19</v>
+      </c>
+      <c r="R21" s="5">
+        <v>19</v>
+      </c>
+      <c r="S21" s="5">
+        <v>19</v>
+      </c>
+      <c r="T21" s="5">
+        <v>19</v>
+      </c>
+      <c r="U21" s="5">
+        <v>19</v>
+      </c>
+      <c r="V21" s="5">
+        <v>19</v>
+      </c>
+      <c r="W21" s="5">
+        <v>19</v>
+      </c>
+      <c r="X21" s="5">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="5">
         <v>21</v>
       </c>
-      <c r="Z21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA21" s="3" t="n">
+      <c r="Z21" s="5">
+        <v>19</v>
+      </c>
+      <c r="AA21" s="5">
         <v>23</v>
       </c>
-      <c r="AB21" s="3" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="AB21" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4" t="n">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="6">
         <v>20</v>
       </c>
       <c r="H22" s="7"/>
@@ -1496,238 +1760,238 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="4" t="n">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="6">
         <v>21</v>
       </c>
-      <c r="H23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="L23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="M23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="N23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="O23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="P23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="R23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="S23" s="3" t="n">
+      <c r="H23" s="5">
+        <v>19</v>
+      </c>
+      <c r="I23" s="5">
+        <v>19</v>
+      </c>
+      <c r="J23" s="5">
+        <v>19</v>
+      </c>
+      <c r="K23" s="5">
+        <v>19</v>
+      </c>
+      <c r="L23" s="5">
+        <v>19</v>
+      </c>
+      <c r="M23" s="5">
+        <v>19</v>
+      </c>
+      <c r="N23" s="5">
+        <v>19</v>
+      </c>
+      <c r="O23" s="5">
+        <v>19</v>
+      </c>
+      <c r="P23" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>19</v>
+      </c>
+      <c r="R23" s="5">
         <v>22</v>
       </c>
-      <c r="T23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="U23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="V23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="W23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="X23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y23" s="3" t="n">
+      <c r="S23" s="5">
+        <v>19</v>
+      </c>
+      <c r="T23" s="5">
+        <v>19</v>
+      </c>
+      <c r="U23" s="5">
+        <v>19</v>
+      </c>
+      <c r="V23" s="5">
+        <v>19</v>
+      </c>
+      <c r="W23" s="5">
+        <v>19</v>
+      </c>
+      <c r="X23" s="5">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="5">
         <v>21</v>
       </c>
-      <c r="Z23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA23" s="3" t="n">
+      <c r="Z23" s="5">
+        <v>19</v>
+      </c>
+      <c r="AA23" s="5">
         <v>23</v>
       </c>
-      <c r="AB23" s="3" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4" t="n">
+      <c r="AB23" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="6">
         <v>22</v>
       </c>
-      <c r="H24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4" t="n">
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="6">
         <v>23</v>
       </c>
-      <c r="H25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="I25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="J25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="K25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="L25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="M25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="N25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="O25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="P25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="R25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="S25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="T25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="U25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="V25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="W25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="X25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB25" s="8" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="H25" s="8">
+        <v>42</v>
+      </c>
+      <c r="I25" s="8">
+        <v>42</v>
+      </c>
+      <c r="J25" s="8">
+        <v>42</v>
+      </c>
+      <c r="K25" s="8">
+        <v>42</v>
+      </c>
+      <c r="L25" s="8">
+        <v>42</v>
+      </c>
+      <c r="M25" s="8">
+        <v>42</v>
+      </c>
+      <c r="N25" s="8">
+        <v>42</v>
+      </c>
+      <c r="O25" s="8">
+        <v>42</v>
+      </c>
+      <c r="P25" s="8">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>42</v>
+      </c>
+      <c r="R25" s="8">
+        <v>42</v>
+      </c>
+      <c r="S25" s="8">
+        <v>42</v>
+      </c>
+      <c r="T25" s="8">
+        <v>42</v>
+      </c>
+      <c r="U25" s="8">
+        <v>42</v>
+      </c>
+      <c r="V25" s="8">
+        <v>42</v>
+      </c>
+      <c r="W25" s="8">
+        <v>42</v>
+      </c>
+      <c r="X25" s="8">
+        <v>42</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>42</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>42</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>42</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4" t="n">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="6">
         <v>24</v>
       </c>
       <c r="H26" s="7"/>
@@ -1752,90 +2016,90 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4" t="n">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="6">
         <v>25</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="5">
         <v>29</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="5">
         <v>29</v>
       </c>
-      <c r="J27" s="3" t="n">
+      <c r="J27" s="5">
         <v>29</v>
       </c>
-      <c r="K27" s="3" t="n">
+      <c r="K27" s="5">
         <v>29</v>
       </c>
-      <c r="L27" s="3" t="n">
+      <c r="L27" s="5">
         <v>29</v>
       </c>
-      <c r="M27" s="3" t="n">
+      <c r="M27" s="5">
         <v>29</v>
       </c>
-      <c r="N27" s="3" t="n">
+      <c r="N27" s="5">
         <v>29</v>
       </c>
-      <c r="O27" s="3" t="n">
+      <c r="O27" s="5">
         <v>29</v>
       </c>
-      <c r="P27" s="3" t="n">
+      <c r="P27" s="5">
         <v>29</v>
       </c>
-      <c r="Q27" s="3" t="n">
+      <c r="Q27" s="5">
         <v>29</v>
       </c>
-      <c r="R27" s="3" t="n">
+      <c r="R27" s="5">
         <v>29</v>
       </c>
-      <c r="S27" s="3" t="n">
+      <c r="S27" s="5">
         <v>29</v>
       </c>
-      <c r="T27" s="3" t="n">
+      <c r="T27" s="5">
         <v>29</v>
       </c>
-      <c r="U27" s="3" t="n">
+      <c r="U27" s="5">
         <v>28</v>
       </c>
-      <c r="V27" s="3" t="n">
+      <c r="V27" s="5">
         <v>27</v>
       </c>
-      <c r="W27" s="3" t="n">
+      <c r="W27" s="5">
         <v>29</v>
       </c>
-      <c r="X27" s="3" t="n">
+      <c r="X27" s="5">
         <v>26</v>
       </c>
-      <c r="Y27" s="3" t="n">
+      <c r="Y27" s="5">
         <v>29</v>
       </c>
-      <c r="Z27" s="3" t="n">
+      <c r="Z27" s="5">
         <v>29</v>
       </c>
-      <c r="AA27" s="3" t="n">
+      <c r="AA27" s="5">
         <v>29</v>
       </c>
-      <c r="AB27" s="3" t="n">
+      <c r="AB27" s="5">
         <v>29</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="4" t="n">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="6">
         <v>26</v>
       </c>
       <c r="H28" s="7"/>
@@ -1860,16 +2124,16 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="4" t="n">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="6">
         <v>27</v>
       </c>
       <c r="H29" s="7"/>
@@ -1894,16 +2158,16 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4" t="n">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="6">
         <v>28</v>
       </c>
       <c r="H30" s="7"/>
@@ -1928,16 +2192,16 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="4" t="n">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="6">
         <v>29</v>
       </c>
       <c r="H31" s="7"/>
@@ -1962,16 +2226,16 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="4" t="n">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="6">
         <v>30</v>
       </c>
       <c r="H32" s="7"/>
@@ -1996,90 +2260,90 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="4" t="n">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="6">
         <v>31</v>
       </c>
-      <c r="H33" s="3" t="n">
+      <c r="H33" s="5">
         <v>33</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="5">
         <v>33</v>
       </c>
-      <c r="J33" s="3" t="n">
+      <c r="J33" s="5">
         <v>33</v>
       </c>
-      <c r="K33" s="3" t="n">
+      <c r="K33" s="5">
         <v>33</v>
       </c>
-      <c r="L33" s="3" t="n">
+      <c r="L33" s="5">
         <v>33</v>
       </c>
-      <c r="M33" s="3" t="n">
+      <c r="M33" s="5">
         <v>33</v>
       </c>
-      <c r="N33" s="3" t="n">
+      <c r="N33" s="5">
         <v>33</v>
       </c>
-      <c r="O33" s="3" t="n">
+      <c r="O33" s="5">
         <v>33</v>
       </c>
-      <c r="P33" s="3" t="n">
+      <c r="P33" s="5">
         <v>33</v>
       </c>
-      <c r="Q33" s="3" t="n">
+      <c r="Q33" s="5">
         <v>33</v>
       </c>
-      <c r="R33" s="3" t="n">
+      <c r="R33" s="5">
         <v>33</v>
       </c>
-      <c r="S33" s="3" t="n">
+      <c r="S33" s="5">
         <v>33</v>
       </c>
-      <c r="T33" s="3" t="n">
+      <c r="T33" s="5">
         <v>33</v>
       </c>
-      <c r="U33" s="3" t="n">
+      <c r="U33" s="5">
         <v>32</v>
       </c>
-      <c r="V33" s="3" t="n">
+      <c r="V33" s="5">
         <v>33</v>
       </c>
-      <c r="W33" s="3" t="n">
+      <c r="W33" s="5">
         <v>33</v>
       </c>
-      <c r="X33" s="3" t="n">
+      <c r="X33" s="5">
         <v>33</v>
       </c>
-      <c r="Y33" s="3" t="n">
+      <c r="Y33" s="5">
         <v>33</v>
       </c>
-      <c r="Z33" s="3" t="n">
+      <c r="Z33" s="5">
         <v>33</v>
       </c>
-      <c r="AA33" s="3" t="n">
+      <c r="AA33" s="5">
         <v>33</v>
       </c>
-      <c r="AB33" s="3" t="n">
+      <c r="AB33" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="4" t="n">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="6">
         <v>32</v>
       </c>
       <c r="H34" s="7"/>
@@ -2104,16 +2368,16 @@
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="4" t="n">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="6">
         <v>33</v>
       </c>
       <c r="H35" s="7"/>
@@ -2138,90 +2402,90 @@
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="4" t="n">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="6">
         <v>34</v>
       </c>
-      <c r="H36" s="3" t="n">
+      <c r="H36" s="5">
         <v>36</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="5">
         <v>36</v>
       </c>
-      <c r="J36" s="3" t="n">
+      <c r="J36" s="5">
         <v>36</v>
       </c>
-      <c r="K36" s="3" t="n">
+      <c r="K36" s="5">
         <v>36</v>
       </c>
-      <c r="L36" s="3" t="n">
+      <c r="L36" s="5">
         <v>36</v>
       </c>
-      <c r="M36" s="3" t="n">
+      <c r="M36" s="5">
         <v>36</v>
       </c>
-      <c r="N36" s="3" t="n">
+      <c r="N36" s="5">
         <v>36</v>
       </c>
-      <c r="O36" s="3" t="n">
+      <c r="O36" s="5">
         <v>36</v>
       </c>
-      <c r="P36" s="3" t="n">
+      <c r="P36" s="5">
         <v>36</v>
       </c>
-      <c r="Q36" s="3" t="n">
+      <c r="Q36" s="5">
         <v>36</v>
       </c>
-      <c r="R36" s="3" t="n">
+      <c r="R36" s="5">
         <v>36</v>
       </c>
-      <c r="S36" s="3" t="n">
+      <c r="S36" s="5">
         <v>36</v>
       </c>
-      <c r="T36" s="3" t="n">
+      <c r="T36" s="5">
         <v>36</v>
       </c>
-      <c r="U36" s="3" t="n">
+      <c r="U36" s="5">
         <v>36</v>
       </c>
-      <c r="V36" s="3" t="n">
+      <c r="V36" s="5">
         <v>36</v>
       </c>
-      <c r="W36" s="3" t="n">
+      <c r="W36" s="5">
         <v>35</v>
       </c>
-      <c r="X36" s="3" t="n">
+      <c r="X36" s="5">
         <v>36</v>
       </c>
-      <c r="Y36" s="3" t="n">
+      <c r="Y36" s="5">
         <v>36</v>
       </c>
-      <c r="Z36" s="3" t="n">
+      <c r="Z36" s="5">
         <v>36</v>
       </c>
-      <c r="AA36" s="3" t="n">
+      <c r="AA36" s="5">
         <v>36</v>
       </c>
-      <c r="AB36" s="3" t="n">
+      <c r="AB36" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="4" t="n">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="6">
         <v>35</v>
       </c>
       <c r="H37" s="7"/>
@@ -2246,16 +2510,16 @@
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="4" t="n">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="6">
         <v>36</v>
       </c>
       <c r="H38" s="7"/>
@@ -2280,90 +2544,90 @@
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="4" t="n">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="6">
         <v>37</v>
       </c>
-      <c r="H39" s="3" t="n">
+      <c r="H39" s="5">
         <v>39</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="5">
         <v>39</v>
       </c>
-      <c r="J39" s="3" t="n">
+      <c r="J39" s="5">
         <v>39</v>
       </c>
-      <c r="K39" s="3" t="n">
+      <c r="K39" s="5">
         <v>39</v>
       </c>
-      <c r="L39" s="3" t="n">
+      <c r="L39" s="5">
         <v>39</v>
       </c>
-      <c r="M39" s="3" t="n">
+      <c r="M39" s="5">
         <v>39</v>
       </c>
-      <c r="N39" s="3" t="n">
+      <c r="N39" s="5">
         <v>39</v>
       </c>
-      <c r="O39" s="3" t="n">
+      <c r="O39" s="5">
         <v>39</v>
       </c>
-      <c r="P39" s="3" t="n">
+      <c r="P39" s="5">
         <v>39</v>
       </c>
-      <c r="Q39" s="3" t="n">
+      <c r="Q39" s="5">
         <v>39</v>
       </c>
-      <c r="R39" s="3" t="n">
+      <c r="R39" s="5">
         <v>39</v>
       </c>
-      <c r="S39" s="3" t="n">
+      <c r="S39" s="5">
         <v>39</v>
       </c>
-      <c r="T39" s="3" t="n">
+      <c r="T39" s="5">
         <v>39</v>
       </c>
-      <c r="U39" s="3" t="n">
+      <c r="U39" s="5">
         <v>39</v>
       </c>
-      <c r="V39" s="3" t="n">
+      <c r="V39" s="5">
         <v>39</v>
       </c>
-      <c r="W39" s="3" t="n">
+      <c r="W39" s="5">
         <v>39</v>
       </c>
-      <c r="X39" s="3" t="n">
+      <c r="X39" s="5">
         <v>38</v>
       </c>
-      <c r="Y39" s="3" t="n">
+      <c r="Y39" s="5">
         <v>39</v>
       </c>
-      <c r="Z39" s="3" t="n">
+      <c r="Z39" s="5">
         <v>39</v>
       </c>
-      <c r="AA39" s="3" t="n">
+      <c r="AA39" s="5">
         <v>39</v>
       </c>
-      <c r="AB39" s="3" t="n">
+      <c r="AB39" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="4" t="n">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="6">
         <v>38</v>
       </c>
       <c r="H40" s="7"/>
@@ -2388,16 +2652,16 @@
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="4" t="n">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="6">
         <v>39</v>
       </c>
       <c r="H41" s="7"/>
@@ -2422,16 +2686,16 @@
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="4" t="n">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="6">
         <v>40</v>
       </c>
       <c r="H42" s="7"/>
@@ -2456,164 +2720,164 @@
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="4" t="n">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="6">
         <v>41</v>
       </c>
-      <c r="H43" s="3" t="n">
+      <c r="H43" s="5">
         <v>43</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I43" s="5">
         <v>43</v>
       </c>
-      <c r="J43" s="3" t="n">
+      <c r="J43" s="5">
         <v>43</v>
       </c>
-      <c r="K43" s="3" t="n">
+      <c r="K43" s="5">
         <v>43</v>
       </c>
-      <c r="L43" s="3" t="n">
+      <c r="L43" s="5">
         <v>43</v>
       </c>
-      <c r="M43" s="3" t="n">
+      <c r="M43" s="5">
         <v>43</v>
       </c>
-      <c r="N43" s="3" t="n">
+      <c r="N43" s="5">
         <v>43</v>
       </c>
-      <c r="O43" s="3" t="n">
+      <c r="O43" s="5">
         <v>43</v>
       </c>
-      <c r="P43" s="3" t="n">
+      <c r="P43" s="5">
         <v>43</v>
       </c>
-      <c r="Q43" s="3" t="n">
+      <c r="Q43" s="5">
         <v>43</v>
       </c>
-      <c r="R43" s="3" t="n">
+      <c r="R43" s="5">
         <v>43</v>
       </c>
-      <c r="S43" s="3" t="n">
+      <c r="S43" s="5">
         <v>43</v>
       </c>
-      <c r="T43" s="3" t="n">
+      <c r="T43" s="5">
         <v>43</v>
       </c>
-      <c r="U43" s="3" t="n">
+      <c r="U43" s="5">
         <v>43</v>
       </c>
-      <c r="V43" s="3" t="n">
+      <c r="V43" s="5">
         <v>43</v>
       </c>
-      <c r="W43" s="3" t="n">
+      <c r="W43" s="5">
         <v>43</v>
       </c>
-      <c r="X43" s="3" t="n">
+      <c r="X43" s="5">
         <v>43</v>
       </c>
-      <c r="Y43" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z43" s="3" t="n">
+      <c r="Y43" s="5">
+        <v>42</v>
+      </c>
+      <c r="Z43" s="5">
         <v>43</v>
       </c>
-      <c r="AA43" s="3" t="n">
+      <c r="AA43" s="5">
         <v>43</v>
       </c>
-      <c r="AB43" s="3" t="n">
+      <c r="AB43" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="I44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="K44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="L44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="M44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="N44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="O44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="P44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="R44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="S44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="T44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="U44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="V44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="W44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="X44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA44" s="8" t="n">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="6">
+        <v>42</v>
+      </c>
+      <c r="H44" s="8">
+        <v>42</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
+        <v>42</v>
+      </c>
+      <c r="K44" s="8">
+        <v>42</v>
+      </c>
+      <c r="L44" s="8">
+        <v>42</v>
+      </c>
+      <c r="M44" s="8">
+        <v>42</v>
+      </c>
+      <c r="N44" s="8">
+        <v>42</v>
+      </c>
+      <c r="O44" s="8">
+        <v>42</v>
+      </c>
+      <c r="P44" s="8">
+        <v>42</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>42</v>
+      </c>
+      <c r="R44" s="8">
+        <v>42</v>
+      </c>
+      <c r="S44" s="8">
+        <v>42</v>
+      </c>
+      <c r="T44" s="8">
+        <v>42</v>
+      </c>
+      <c r="U44" s="8">
+        <v>42</v>
+      </c>
+      <c r="V44" s="8">
+        <v>42</v>
+      </c>
+      <c r="W44" s="8">
+        <v>42</v>
+      </c>
+      <c r="X44" s="8">
+        <v>42</v>
+      </c>
+      <c r="Y44" s="8">
+        <v>42</v>
+      </c>
+      <c r="Z44" s="8">
+        <v>42</v>
+      </c>
+      <c r="AA44" s="8">
         <v>14</v>
       </c>
-      <c r="AB44" s="8" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+      <c r="AB44" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="4" t="n">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="6">
         <v>43</v>
       </c>
       <c r="H45" s="7"/>
@@ -2638,16 +2902,16 @@
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="4" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H46" s="7"/>
@@ -2674,59 +2938,54 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Automato/tab_transicoes.xlsx
+++ b/Automato/tab_transicoes.xlsx
@@ -532,178 +532,178 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB46"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R23" activeCellId="0" sqref="R23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="8" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="3" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="n">
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4" t="n">
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="n">
@@ -713,13 +713,13 @@
         <v>2</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>2</v>
@@ -754,34 +754,19 @@
       <c r="W3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="X3" s="3" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="Y3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -798,33 +783,38 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4" t="n">
+      <c r="B5" s="4" t="n">
         <v>3</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="n">
-        <v>5</v>
-      </c>
       <c r="K5" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="3" t="n">
         <v>4</v>
@@ -833,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O5" s="3" t="n">
         <v>4</v>
@@ -862,34 +852,19 @@
       <c r="W5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="X5" s="3" t="n">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Y5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -906,24 +881,19 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4" t="n">
+      <c r="B7" s="4" t="n">
         <v>5</v>
       </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -940,21 +910,26 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4" t="n">
+      <c r="B8" s="4" t="n">
         <v>6</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>7</v>
@@ -963,10 +938,10 @@
         <v>7</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L8" s="3" t="n">
         <v>7</v>
@@ -1004,34 +979,19 @@
       <c r="W8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="X8" s="3" t="n">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="Y8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB8" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4" t="n">
-        <v>7</v>
-      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1048,24 +1008,19 @@
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4" t="n">
+      <c r="B10" s="4" t="n">
         <v>8</v>
       </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1082,21 +1037,26 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4" t="n">
+      <c r="B11" s="4" t="n">
         <v>9</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>10</v>
       </c>
       <c r="H11" s="3" t="n">
         <v>10</v>
@@ -1108,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>10</v>
@@ -1146,31 +1106,26 @@
       <c r="W11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="X11" s="3" t="n">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="Y11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4" t="n">
-        <v>10</v>
+      <c r="C12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="n">
         <v>0</v>
@@ -1220,37 +1175,32 @@
       <c r="W12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4" t="n">
+      <c r="B13" s="4" t="n">
         <v>11</v>
       </c>
+      <c r="C13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>11</v>
+      </c>
       <c r="H13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3" t="n">
         <v>11</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>13</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>11</v>
@@ -1262,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N13" s="3" t="n">
         <v>11</v>
@@ -1289,39 +1239,24 @@
         <v>11</v>
       </c>
       <c r="V13" s="3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W13" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="X13" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y13" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA13" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB13" s="3" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4" t="n">
+      <c r="B14" s="4" t="n">
         <v>12</v>
       </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1338,24 +1273,19 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4" t="n">
+      <c r="B15" s="4" t="n">
         <v>13</v>
       </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1372,24 +1302,19 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4" t="n">
+      <c r="B16" s="4" t="n">
         <v>14</v>
       </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1406,24 +1331,19 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4" t="n">
+      <c r="B17" s="4" t="n">
         <v>15</v>
       </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1440,24 +1360,19 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4" t="n">
+      <c r="B18" s="4" t="n">
         <v>16</v>
       </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1474,24 +1389,19 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4" t="n">
+      <c r="B19" s="4" t="n">
         <v>17</v>
       </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1508,21 +1418,26 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4" t="n">
+      <c r="B20" s="4" t="n">
         <v>18</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>20</v>
       </c>
       <c r="H20" s="3" t="n">
         <v>20</v>
@@ -1561,7 +1476,7 @@
         <v>20</v>
       </c>
       <c r="T20" s="3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U20" s="3" t="n">
         <v>20</v>
@@ -1572,108 +1487,88 @@
       <c r="W20" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="X20" s="3" t="n">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="Y20" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z20" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA20" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB20" s="3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="K21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="N21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="O21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="P21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="R21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="S21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="T21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="U21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="V21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="W21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="X21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y21" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA21" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB21" s="3" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4" t="n">
-        <v>20</v>
-      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1690,22 +1585,27 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="4" t="n">
+      <c r="B23" s="4" t="n">
         <v>21</v>
       </c>
+      <c r="C23" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>19</v>
+      </c>
       <c r="H23" s="3" t="n">
         <v>19</v>
       </c>
@@ -1725,7 +1625,7 @@
         <v>19</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O23" s="3" t="n">
         <v>19</v>
@@ -1740,45 +1640,40 @@
         <v>19</v>
       </c>
       <c r="S23" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="T23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="U23" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="V23" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="W23" s="3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="T23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="U23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="V23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="W23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="X23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y23" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA23" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB23" s="3" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4" t="n">
-        <v>22</v>
+      <c r="C24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="n">
         <v>0</v>
@@ -1828,31 +1723,26 @@
       <c r="W24" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4" t="n">
-        <v>23</v>
+      <c r="B25" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>42</v>
       </c>
       <c r="H25" s="8" t="n">
         <v>42</v>
@@ -1902,34 +1792,19 @@
       <c r="W25" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="X25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB25" s="8" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4" t="n">
+      <c r="B26" s="4" t="n">
         <v>24</v>
       </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1946,21 +1821,26 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4" t="n">
+      <c r="B27" s="4" t="n">
         <v>25</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>29</v>
       </c>
       <c r="H27" s="3" t="n">
         <v>29</v>
@@ -1987,57 +1867,42 @@
         <v>29</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R27" s="3" t="n">
         <v>29</v>
       </c>
       <c r="S27" s="3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T27" s="3" t="n">
         <v>29</v>
       </c>
       <c r="U27" s="3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V27" s="3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W27" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="X27" s="3" t="n">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="Y27" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z27" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA27" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB27" s="3" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="4" t="n">
-        <v>26</v>
-      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -2054,24 +1919,19 @@
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="4" t="n">
+      <c r="B29" s="4" t="n">
         <v>27</v>
       </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -2088,24 +1948,19 @@
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4" t="n">
+      <c r="B30" s="4" t="n">
         <v>28</v>
       </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -2122,24 +1977,19 @@
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="4" t="n">
+      <c r="B31" s="4" t="n">
         <v>29</v>
       </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -2156,24 +2006,19 @@
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="4" t="n">
+      <c r="B32" s="4" t="n">
         <v>30</v>
       </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -2190,21 +2035,26 @@
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="4" t="n">
+      <c r="B33" s="4" t="n">
         <v>31</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>33</v>
       </c>
       <c r="H33" s="3" t="n">
         <v>33</v>
@@ -2231,7 +2081,7 @@
         <v>33</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="3" t="n">
         <v>33</v>
@@ -2246,7 +2096,7 @@
         <v>33</v>
       </c>
       <c r="U33" s="3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V33" s="3" t="n">
         <v>33</v>
@@ -2254,34 +2104,19 @@
       <c r="W33" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="X33" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="Y33" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z33" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="AA33" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="AB33" s="3" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="4" t="n">
+      <c r="B34" s="4" t="n">
         <v>32</v>
       </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -2298,24 +2133,19 @@
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="4" t="n">
+      <c r="B35" s="4" t="n">
         <v>33</v>
       </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -2332,21 +2162,26 @@
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="4" t="n">
+      <c r="B36" s="4" t="n">
         <v>34</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>36</v>
       </c>
       <c r="H36" s="3" t="n">
         <v>36</v>
@@ -2379,7 +2214,7 @@
         <v>36</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S36" s="3" t="n">
         <v>36</v>
@@ -2394,36 +2229,21 @@
         <v>36</v>
       </c>
       <c r="W36" s="3" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="X36" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y36" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z36" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA36" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB36" s="3" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="4" t="n">
-        <v>35</v>
-      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -2440,24 +2260,19 @@
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="4" t="n">
+      <c r="B38" s="4" t="n">
         <v>36</v>
       </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -2474,21 +2289,26 @@
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="4" t="n">
+      <c r="B39" s="4" t="n">
         <v>37</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>39</v>
       </c>
       <c r="H39" s="3" t="n">
         <v>39</v>
@@ -2524,7 +2344,7 @@
         <v>39</v>
       </c>
       <c r="S39" s="3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T39" s="3" t="n">
         <v>39</v>
@@ -2538,34 +2358,19 @@
       <c r="W39" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="X39" s="3" t="n">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="Y39" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z39" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="AA39" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="AB39" s="3" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="4" t="n">
-        <v>38</v>
-      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -2582,24 +2387,19 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="4" t="n">
+      <c r="B41" s="4" t="n">
         <v>39</v>
       </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -2616,24 +2416,19 @@
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="4" t="n">
+      <c r="B42" s="4" t="n">
         <v>40</v>
       </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -2650,21 +2445,26 @@
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="4" t="n">
+      <c r="B43" s="4" t="n">
         <v>41</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>43</v>
       </c>
       <c r="H43" s="3" t="n">
         <v>43</v>
@@ -2703,7 +2503,7 @@
         <v>43</v>
       </c>
       <c r="T43" s="3" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U43" s="3" t="n">
         <v>43</v>
@@ -2714,108 +2514,88 @@
       <c r="W43" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="X43" s="3" t="n">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2"/>
+      <c r="B44" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="H44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="J44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="L44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="M44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="N44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="O44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="P44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="R44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="S44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="T44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="U44" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="V44" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="W44" s="8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="Y43" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z43" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="AA43" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="AB43" s="3" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="I44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="K44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="L44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="M44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="N44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="O44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="P44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="R44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="S44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="T44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="U44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="V44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="W44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="X44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA44" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB44" s="8" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="4" t="n">
-        <v>43</v>
-      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -2832,24 +2612,19 @@
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -2866,61 +2641,8 @@
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Automato/tab_transicoes.xlsx
+++ b/Automato/tab_transicoes.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">Brancos:  \t space</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t xml:space="preserve">Estados/Entrada</t>
   </si>
@@ -104,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -129,87 +126,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -217,7 +133,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,50 +142,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -279,27 +153,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -325,7 +184,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,55 +208,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -410,74 +221,58 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="3" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFA9D18E"/>
@@ -485,11 +280,11 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -505,7 +300,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -517,11 +312,11 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF3F3F3F"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -535,7 +330,7 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -547,74 +342,72 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="U1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,7 +550,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>2</v>
@@ -855,7 +648,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>4</v>
@@ -884,7 +677,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>5</v>
@@ -982,7 +775,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>7</v>
@@ -1011,7 +804,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>8</v>
@@ -1247,7 +1040,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>12</v>
@@ -1276,7 +1069,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>13</v>
@@ -1305,7 +1098,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>14</v>
@@ -1334,7 +1127,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>15</v>
@@ -1363,7 +1156,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>16</v>
@@ -1392,7 +1185,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>17</v>
@@ -1559,7 +1352,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>20</v>
@@ -1795,7 +1588,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>24</v>
@@ -1893,7 +1686,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>26</v>
@@ -1922,7 +1715,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>27</v>
@@ -1951,7 +1744,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="4" t="n">
         <v>28</v>
@@ -1980,7 +1773,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="4" t="n">
         <v>29</v>
@@ -2009,7 +1802,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>30</v>
@@ -2107,7 +1900,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="4" t="n">
         <v>32</v>
@@ -2136,7 +1929,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>33</v>
@@ -2234,7 +2027,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>35</v>
@@ -2263,7 +2056,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>36</v>
@@ -2361,7 +2154,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="4" t="n">
         <v>38</v>
@@ -2390,7 +2183,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="4" t="n">
         <v>39</v>
@@ -2419,7 +2212,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" s="4" t="n">
         <v>40</v>
@@ -2586,7 +2379,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" s="4" t="n">
         <v>43</v>
@@ -2615,10 +2408,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>

--- a/Automato/tab_transicoes.xlsx
+++ b/Automato/tab_transicoes.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eberty\Dropbox\DocumentosCIC\Semestre6\Compiladores\ProjetoCompiladoresEbertyPhiliphe\Automato\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,88 +25,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
-    <t xml:space="preserve">Estados/Entrada</t>
+    <t>Estados/Entrada</t>
   </si>
   <si>
-    <t xml:space="preserve">Branco</t>
+    <t>Branco</t>
   </si>
   <si>
-    <t xml:space="preserve">\n</t>
+    <t>\n</t>
   </si>
   <si>
-    <t xml:space="preserve">letra</t>
+    <t>letra</t>
   </si>
   <si>
-    <t xml:space="preserve">digito</t>
+    <t>digito</t>
   </si>
   <si>
-    <t xml:space="preserve">_</t>
+    <t>_</t>
   </si>
   <si>
-    <t xml:space="preserve">"</t>
+    <t>"</t>
   </si>
   <si>
-    <t xml:space="preserve">.</t>
+    <t>.</t>
   </si>
   <si>
-    <t xml:space="preserve">,</t>
+    <t>,</t>
   </si>
   <si>
-    <t xml:space="preserve">;</t>
+    <t>;</t>
   </si>
   <si>
-    <t xml:space="preserve">:</t>
+    <t>:</t>
   </si>
   <si>
-    <t xml:space="preserve">(</t>
+    <t>(</t>
   </si>
   <si>
-    <t xml:space="preserve">)</t>
+    <t>)</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;</t>
+    <t>&lt;</t>
   </si>
   <si>
-    <t xml:space="preserve">=</t>
+    <t>=</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;</t>
+    <t>&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">+</t>
+    <t>+</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
+    <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">*</t>
+    <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">/</t>
+    <t>/</t>
   </si>
   <si>
-    <t xml:space="preserve">EOF</t>
+    <t>EOF</t>
   </si>
   <si>
-    <t xml:space="preserve">outro</t>
+    <t>outro</t>
   </si>
   <si>
-    <t xml:space="preserve">final</t>
+    <t>final</t>
   </si>
   <si>
-    <t xml:space="preserve">H</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -110,22 +112,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -133,7 +120,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,16 +139,22 @@
         <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -176,89 +169,65 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Texto Explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -317,31 +286,337 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:W46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMC46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="3" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="9"/>
+    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="1017" width="9" style="1" customWidth="1"/>
+    <col min="1018" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -410,149 +685,149 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="n">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>44</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="3">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="3">
         <v>16</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="3">
         <v>17</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="3">
         <v>18</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="3">
         <v>24</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="3">
         <v>25</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="3">
         <v>30</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="3">
         <v>31</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="3">
         <v>34</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="3">
         <v>37</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="3">
         <v>40</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="3">
         <v>41</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="3">
         <v>14</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="3">
         <v>2</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="3">
         <v>2</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="3">
         <v>2</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="3">
         <v>2</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="3">
         <v>2</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="3">
         <v>2</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="3">
         <v>2</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="3">
         <v>2</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="3">
         <v>2</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="3">
         <v>2</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="T3" s="3">
         <v>2</v>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="U3" s="3">
         <v>2</v>
       </c>
-      <c r="V3" s="3" t="n">
+      <c r="V3" s="3">
         <v>2</v>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="7"/>
@@ -577,80 +852,80 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>6</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="3">
         <v>4</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="3">
         <v>4</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="3">
         <v>4</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="3">
         <v>4</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="3">
         <v>4</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="3">
         <v>4</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P5" s="3">
         <v>4</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q5" s="3">
         <v>4</v>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="R5" s="3">
         <v>4</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="S5" s="3">
         <v>4</v>
       </c>
-      <c r="T5" s="3" t="n">
+      <c r="T5" s="3">
         <v>4</v>
       </c>
-      <c r="U5" s="3" t="n">
+      <c r="U5" s="3">
         <v>4</v>
       </c>
-      <c r="V5" s="3" t="n">
+      <c r="V5" s="3">
         <v>4</v>
       </c>
-      <c r="W5" s="3" t="n">
+      <c r="W5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="7"/>
@@ -675,11 +950,11 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="7"/>
@@ -704,80 +979,80 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="3">
         <v>7</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="3">
         <v>7</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3">
         <v>7</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="3">
         <v>7</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="3">
         <v>7</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="L8" s="3">
         <v>7</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="3">
         <v>7</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="3">
         <v>7</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="3">
         <v>7</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="P8" s="3">
         <v>7</v>
       </c>
-      <c r="Q8" s="3" t="n">
+      <c r="Q8" s="3">
         <v>7</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="3">
         <v>7</v>
       </c>
-      <c r="S8" s="3" t="n">
+      <c r="S8" s="3">
         <v>7</v>
       </c>
-      <c r="T8" s="3" t="n">
+      <c r="T8" s="3">
         <v>7</v>
       </c>
-      <c r="U8" s="3" t="n">
+      <c r="U8" s="3">
         <v>7</v>
       </c>
-      <c r="V8" s="3" t="n">
+      <c r="V8" s="3">
         <v>7</v>
       </c>
-      <c r="W8" s="3" t="n">
+      <c r="W8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="7"/>
@@ -802,11 +1077,11 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="7"/>
@@ -831,218 +1106,218 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>6</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="3">
         <v>10</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="3">
         <v>10</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="3">
         <v>10</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="3">
         <v>10</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="3">
         <v>10</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="L11" s="3">
         <v>10</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="3">
         <v>10</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="N11" s="3">
         <v>10</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="3">
         <v>10</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="3">
         <v>10</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="3">
         <v>10</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="R11" s="3">
         <v>10</v>
       </c>
-      <c r="S11" s="3" t="n">
+      <c r="S11" s="3">
         <v>10</v>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="3">
         <v>10</v>
       </c>
-      <c r="U11" s="3" t="n">
+      <c r="U11" s="3">
         <v>10</v>
       </c>
-      <c r="V11" s="3" t="n">
+      <c r="V11" s="3">
         <v>10</v>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="3">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="3">
         <v>13</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>11</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>11</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="3">
         <v>11</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="3">
         <v>12</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="3">
         <v>11</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="3">
         <v>11</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="3">
         <v>11</v>
       </c>
-      <c r="L13" s="3" t="n">
+      <c r="L13" s="3">
         <v>11</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="3">
         <v>11</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="N13" s="3">
         <v>11</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="3">
         <v>11</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="P13" s="3">
         <v>11</v>
       </c>
-      <c r="Q13" s="3" t="n">
+      <c r="Q13" s="3">
         <v>11</v>
       </c>
-      <c r="R13" s="3" t="n">
+      <c r="R13" s="3">
         <v>11</v>
       </c>
-      <c r="S13" s="3" t="n">
+      <c r="S13" s="3">
         <v>11</v>
       </c>
-      <c r="T13" s="3" t="n">
+      <c r="T13" s="3">
         <v>11</v>
       </c>
-      <c r="U13" s="3" t="n">
+      <c r="U13" s="3">
         <v>11</v>
       </c>
-      <c r="V13" s="3" t="n">
+      <c r="V13" s="3">
         <v>13</v>
       </c>
-      <c r="W13" s="3" t="n">
+      <c r="W13" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="7"/>
@@ -1067,11 +1342,11 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="4">
         <v>13</v>
       </c>
       <c r="C15" s="7"/>
@@ -1096,11 +1371,11 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="4">
         <v>14</v>
       </c>
       <c r="C16" s="7"/>
@@ -1125,11 +1400,11 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="4">
         <v>15</v>
       </c>
       <c r="C17" s="7"/>
@@ -1154,11 +1429,11 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="4">
         <v>16</v>
       </c>
       <c r="C18" s="7"/>
@@ -1183,11 +1458,11 @@
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="4">
         <v>17</v>
       </c>
       <c r="C19" s="7"/>
@@ -1212,149 +1487,149 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="3">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="3">
         <v>20</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>20</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="3">
         <v>20</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="3">
         <v>20</v>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="3">
         <v>20</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="3">
         <v>20</v>
       </c>
-      <c r="J20" s="3" t="n">
+      <c r="J20" s="3">
         <v>20</v>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="K20" s="3">
         <v>20</v>
       </c>
-      <c r="L20" s="3" t="n">
+      <c r="L20" s="3">
         <v>20</v>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="M20" s="3">
         <v>20</v>
       </c>
-      <c r="N20" s="3" t="n">
+      <c r="N20" s="3">
         <v>20</v>
       </c>
-      <c r="O20" s="3" t="n">
+      <c r="O20" s="3">
         <v>20</v>
       </c>
-      <c r="P20" s="3" t="n">
+      <c r="P20" s="3">
         <v>20</v>
       </c>
-      <c r="Q20" s="3" t="n">
+      <c r="Q20" s="3">
         <v>20</v>
       </c>
-      <c r="R20" s="3" t="n">
+      <c r="R20" s="3">
         <v>20</v>
       </c>
-      <c r="S20" s="3" t="n">
+      <c r="S20" s="3">
         <v>20</v>
       </c>
-      <c r="T20" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="U20" s="3" t="n">
+      <c r="T20" s="3">
+        <v>19</v>
+      </c>
+      <c r="U20" s="3">
         <v>20</v>
       </c>
-      <c r="V20" s="3" t="n">
+      <c r="V20" s="3">
         <v>20</v>
       </c>
-      <c r="W20" s="3" t="n">
+      <c r="W20" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="K21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="N21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="O21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="P21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="R21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="S21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="T21" s="3" t="n">
+      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3">
+        <v>19</v>
+      </c>
+      <c r="K21" s="3">
+        <v>19</v>
+      </c>
+      <c r="L21" s="3">
+        <v>19</v>
+      </c>
+      <c r="M21" s="3">
+        <v>19</v>
+      </c>
+      <c r="N21" s="3">
+        <v>19</v>
+      </c>
+      <c r="O21" s="3">
+        <v>19</v>
+      </c>
+      <c r="P21" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>19</v>
+      </c>
+      <c r="R21" s="3">
+        <v>19</v>
+      </c>
+      <c r="S21" s="3">
+        <v>19</v>
+      </c>
+      <c r="T21" s="3">
         <v>21</v>
       </c>
-      <c r="U21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="V21" s="3" t="n">
+      <c r="U21" s="3">
+        <v>19</v>
+      </c>
+      <c r="V21" s="3">
         <v>23</v>
       </c>
-      <c r="W21" s="3" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W21" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="4">
         <v>20</v>
       </c>
       <c r="C22" s="7"/>
@@ -1379,218 +1654,218 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="G23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="H23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="L23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="M23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="N23" s="3" t="n">
+      <c r="C23" s="3">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3">
+        <v>19</v>
+      </c>
+      <c r="G23" s="3">
+        <v>19</v>
+      </c>
+      <c r="H23" s="3">
+        <v>19</v>
+      </c>
+      <c r="I23" s="3">
+        <v>19</v>
+      </c>
+      <c r="J23" s="3">
+        <v>19</v>
+      </c>
+      <c r="K23" s="3">
+        <v>19</v>
+      </c>
+      <c r="L23" s="3">
+        <v>19</v>
+      </c>
+      <c r="M23" s="3">
+        <v>19</v>
+      </c>
+      <c r="N23" s="3">
         <v>22</v>
       </c>
-      <c r="O23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="P23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="R23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="S23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="T23" s="3" t="n">
+      <c r="O23" s="3">
+        <v>19</v>
+      </c>
+      <c r="P23" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>19</v>
+      </c>
+      <c r="R23" s="3">
+        <v>19</v>
+      </c>
+      <c r="S23" s="3">
+        <v>19</v>
+      </c>
+      <c r="T23" s="3">
         <v>21</v>
       </c>
-      <c r="U23" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="V23" s="3" t="n">
+      <c r="U23" s="3">
+        <v>19</v>
+      </c>
+      <c r="V23" s="3">
         <v>23</v>
       </c>
-      <c r="W23" s="3" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W23" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="D25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="E25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="F25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="G25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="H25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="I25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="J25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="K25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="L25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="M25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="N25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="O25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="P25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="R25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="S25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="T25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="U25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="V25" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="W25" s="8" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="8">
+        <v>42</v>
+      </c>
+      <c r="D25" s="8">
+        <v>42</v>
+      </c>
+      <c r="E25" s="8">
+        <v>42</v>
+      </c>
+      <c r="F25" s="8">
+        <v>42</v>
+      </c>
+      <c r="G25" s="8">
+        <v>42</v>
+      </c>
+      <c r="H25" s="8">
+        <v>42</v>
+      </c>
+      <c r="I25" s="8">
+        <v>42</v>
+      </c>
+      <c r="J25" s="8">
+        <v>42</v>
+      </c>
+      <c r="K25" s="8">
+        <v>42</v>
+      </c>
+      <c r="L25" s="8">
+        <v>42</v>
+      </c>
+      <c r="M25" s="8">
+        <v>42</v>
+      </c>
+      <c r="N25" s="8">
+        <v>42</v>
+      </c>
+      <c r="O25" s="8">
+        <v>42</v>
+      </c>
+      <c r="P25" s="8">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>42</v>
+      </c>
+      <c r="R25" s="8">
+        <v>42</v>
+      </c>
+      <c r="S25" s="8">
+        <v>42</v>
+      </c>
+      <c r="T25" s="8">
+        <v>42</v>
+      </c>
+      <c r="U25" s="8">
+        <v>42</v>
+      </c>
+      <c r="V25" s="8">
+        <v>42</v>
+      </c>
+      <c r="W25" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="4">
         <v>24</v>
       </c>
       <c r="C26" s="7"/>
@@ -1615,80 +1890,80 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="3">
         <v>29</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="3">
         <v>29</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="3">
         <v>29</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="3">
         <v>29</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G27" s="3">
         <v>29</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="3">
         <v>29</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="3">
         <v>29</v>
       </c>
-      <c r="J27" s="3" t="n">
+      <c r="J27" s="3">
         <v>29</v>
       </c>
-      <c r="K27" s="3" t="n">
+      <c r="K27" s="3">
         <v>29</v>
       </c>
-      <c r="L27" s="3" t="n">
+      <c r="L27" s="3">
         <v>29</v>
       </c>
-      <c r="M27" s="3" t="n">
+      <c r="M27" s="3">
         <v>29</v>
       </c>
-      <c r="N27" s="3" t="n">
+      <c r="N27" s="3">
         <v>29</v>
       </c>
-      <c r="O27" s="3" t="n">
+      <c r="O27" s="3">
         <v>29</v>
       </c>
-      <c r="P27" s="3" t="n">
+      <c r="P27" s="3">
         <v>28</v>
       </c>
-      <c r="Q27" s="3" t="n">
+      <c r="Q27" s="3">
         <v>27</v>
       </c>
-      <c r="R27" s="3" t="n">
+      <c r="R27" s="3">
         <v>29</v>
       </c>
-      <c r="S27" s="3" t="n">
+      <c r="S27" s="3">
         <v>26</v>
       </c>
-      <c r="T27" s="3" t="n">
+      <c r="T27" s="3">
         <v>29</v>
       </c>
-      <c r="U27" s="3" t="n">
+      <c r="U27" s="3">
         <v>29</v>
       </c>
-      <c r="V27" s="3" t="n">
+      <c r="V27" s="3">
         <v>29</v>
       </c>
-      <c r="W27" s="3" t="n">
+      <c r="W27" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="4">
         <v>26</v>
       </c>
       <c r="C28" s="7"/>
@@ -1713,11 +1988,11 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="4">
         <v>27</v>
       </c>
       <c r="C29" s="7"/>
@@ -1742,11 +2017,11 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="4">
         <v>28</v>
       </c>
       <c r="C30" s="7"/>
@@ -1771,11 +2046,11 @@
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="4">
         <v>29</v>
       </c>
       <c r="C31" s="7"/>
@@ -1800,11 +2075,11 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="4">
         <v>30</v>
       </c>
       <c r="C32" s="7"/>
@@ -1829,80 +2104,80 @@
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="3">
         <v>33</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="3">
         <v>33</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="3">
         <v>33</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="3">
         <v>33</v>
       </c>
-      <c r="G33" s="3" t="n">
+      <c r="G33" s="3">
         <v>33</v>
       </c>
-      <c r="H33" s="3" t="n">
+      <c r="H33" s="3">
         <v>33</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="3">
         <v>33</v>
       </c>
-      <c r="J33" s="3" t="n">
+      <c r="J33" s="3">
         <v>33</v>
       </c>
-      <c r="K33" s="3" t="n">
+      <c r="K33" s="3">
         <v>33</v>
       </c>
-      <c r="L33" s="3" t="n">
+      <c r="L33" s="3">
         <v>33</v>
       </c>
-      <c r="M33" s="3" t="n">
+      <c r="M33" s="3">
         <v>33</v>
       </c>
-      <c r="N33" s="3" t="n">
+      <c r="N33" s="3">
         <v>33</v>
       </c>
-      <c r="O33" s="3" t="n">
+      <c r="O33" s="3">
         <v>33</v>
       </c>
-      <c r="P33" s="3" t="n">
+      <c r="P33" s="3">
         <v>32</v>
       </c>
-      <c r="Q33" s="3" t="n">
+      <c r="Q33" s="3">
         <v>33</v>
       </c>
-      <c r="R33" s="3" t="n">
+      <c r="R33" s="3">
         <v>33</v>
       </c>
-      <c r="S33" s="3" t="n">
+      <c r="S33" s="3">
         <v>33</v>
       </c>
-      <c r="T33" s="3" t="n">
+      <c r="T33" s="3">
         <v>33</v>
       </c>
-      <c r="U33" s="3" t="n">
+      <c r="U33" s="3">
         <v>33</v>
       </c>
-      <c r="V33" s="3" t="n">
+      <c r="V33" s="3">
         <v>33</v>
       </c>
-      <c r="W33" s="3" t="n">
+      <c r="W33" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="4">
         <v>32</v>
       </c>
       <c r="C34" s="7"/>
@@ -1927,11 +2202,11 @@
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="4">
         <v>33</v>
       </c>
       <c r="C35" s="7"/>
@@ -1956,80 +2231,80 @@
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="3">
         <v>36</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="3">
         <v>36</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="3">
         <v>36</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F36" s="3">
         <v>36</v>
       </c>
-      <c r="G36" s="3" t="n">
+      <c r="G36" s="3">
         <v>36</v>
       </c>
-      <c r="H36" s="3" t="n">
+      <c r="H36" s="3">
         <v>36</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="3">
         <v>36</v>
       </c>
-      <c r="J36" s="3" t="n">
+      <c r="J36" s="3">
         <v>36</v>
       </c>
-      <c r="K36" s="3" t="n">
+      <c r="K36" s="3">
         <v>36</v>
       </c>
-      <c r="L36" s="3" t="n">
+      <c r="L36" s="3">
         <v>36</v>
       </c>
-      <c r="M36" s="3" t="n">
+      <c r="M36" s="3">
         <v>36</v>
       </c>
-      <c r="N36" s="3" t="n">
+      <c r="N36" s="3">
         <v>36</v>
       </c>
-      <c r="O36" s="3" t="n">
+      <c r="O36" s="3">
         <v>36</v>
       </c>
-      <c r="P36" s="3" t="n">
+      <c r="P36" s="3">
         <v>36</v>
       </c>
-      <c r="Q36" s="3" t="n">
+      <c r="Q36" s="3">
         <v>36</v>
       </c>
-      <c r="R36" s="3" t="n">
+      <c r="R36" s="3">
         <v>35</v>
       </c>
-      <c r="S36" s="3" t="n">
+      <c r="S36" s="3">
         <v>36</v>
       </c>
-      <c r="T36" s="3" t="n">
+      <c r="T36" s="3">
         <v>36</v>
       </c>
-      <c r="U36" s="3" t="n">
+      <c r="U36" s="3">
         <v>36</v>
       </c>
-      <c r="V36" s="3" t="n">
+      <c r="V36" s="3">
         <v>36</v>
       </c>
-      <c r="W36" s="3" t="n">
+      <c r="W36" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="4">
         <v>35</v>
       </c>
       <c r="C37" s="7"/>
@@ -2054,11 +2329,11 @@
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="4">
         <v>36</v>
       </c>
       <c r="C38" s="7"/>
@@ -2083,80 +2358,80 @@
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="4">
         <v>37</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="3">
         <v>39</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="3">
         <v>39</v>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="3">
         <v>39</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="F39" s="3">
         <v>39</v>
       </c>
-      <c r="G39" s="3" t="n">
+      <c r="G39" s="3">
         <v>39</v>
       </c>
-      <c r="H39" s="3" t="n">
+      <c r="H39" s="3">
         <v>39</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="3">
         <v>39</v>
       </c>
-      <c r="J39" s="3" t="n">
+      <c r="J39" s="3">
         <v>39</v>
       </c>
-      <c r="K39" s="3" t="n">
+      <c r="K39" s="3">
         <v>39</v>
       </c>
-      <c r="L39" s="3" t="n">
+      <c r="L39" s="3">
         <v>39</v>
       </c>
-      <c r="M39" s="3" t="n">
+      <c r="M39" s="3">
         <v>39</v>
       </c>
-      <c r="N39" s="3" t="n">
+      <c r="N39" s="3">
         <v>39</v>
       </c>
-      <c r="O39" s="3" t="n">
+      <c r="O39" s="3">
         <v>39</v>
       </c>
-      <c r="P39" s="3" t="n">
+      <c r="P39" s="3">
         <v>39</v>
       </c>
-      <c r="Q39" s="3" t="n">
+      <c r="Q39" s="3">
         <v>39</v>
       </c>
-      <c r="R39" s="3" t="n">
+      <c r="R39" s="3">
         <v>39</v>
       </c>
-      <c r="S39" s="3" t="n">
+      <c r="S39" s="3">
         <v>38</v>
       </c>
-      <c r="T39" s="3" t="n">
+      <c r="T39" s="3">
         <v>39</v>
       </c>
-      <c r="U39" s="3" t="n">
+      <c r="U39" s="3">
         <v>39</v>
       </c>
-      <c r="V39" s="3" t="n">
+      <c r="V39" s="3">
         <v>39</v>
       </c>
-      <c r="W39" s="3" t="n">
+      <c r="W39" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="4">
         <v>38</v>
       </c>
       <c r="C40" s="7"/>
@@ -2181,11 +2456,11 @@
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="4">
         <v>39</v>
       </c>
       <c r="C41" s="7"/>
@@ -2210,11 +2485,11 @@
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="4">
         <v>40</v>
       </c>
       <c r="C42" s="7"/>
@@ -2239,149 +2514,149 @@
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="4">
         <v>41</v>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="C43" s="3">
         <v>43</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="3">
         <v>43</v>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="3">
         <v>43</v>
       </c>
-      <c r="F43" s="3" t="n">
+      <c r="F43" s="3">
         <v>43</v>
       </c>
-      <c r="G43" s="3" t="n">
+      <c r="G43" s="3">
         <v>43</v>
       </c>
-      <c r="H43" s="3" t="n">
+      <c r="H43" s="3">
         <v>43</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I43" s="3">
         <v>43</v>
       </c>
-      <c r="J43" s="3" t="n">
+      <c r="J43" s="3">
         <v>43</v>
       </c>
-      <c r="K43" s="3" t="n">
+      <c r="K43" s="3">
         <v>43</v>
       </c>
-      <c r="L43" s="3" t="n">
+      <c r="L43" s="3">
         <v>43</v>
       </c>
-      <c r="M43" s="3" t="n">
+      <c r="M43" s="3">
         <v>43</v>
       </c>
-      <c r="N43" s="3" t="n">
+      <c r="N43" s="3">
         <v>43</v>
       </c>
-      <c r="O43" s="3" t="n">
+      <c r="O43" s="3">
         <v>43</v>
       </c>
-      <c r="P43" s="3" t="n">
+      <c r="P43" s="3">
         <v>43</v>
       </c>
-      <c r="Q43" s="3" t="n">
+      <c r="Q43" s="3">
         <v>43</v>
       </c>
-      <c r="R43" s="3" t="n">
+      <c r="R43" s="3">
         <v>43</v>
       </c>
-      <c r="S43" s="3" t="n">
+      <c r="S43" s="3">
         <v>43</v>
       </c>
-      <c r="T43" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="U43" s="3" t="n">
+      <c r="T43" s="3">
+        <v>42</v>
+      </c>
+      <c r="U43" s="3">
         <v>43</v>
       </c>
-      <c r="V43" s="3" t="n">
+      <c r="V43" s="3">
         <v>43</v>
       </c>
-      <c r="W43" s="3" t="n">
+      <c r="W43" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="C44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="D44" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="F44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="G44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="H44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="I44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="J44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="K44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="L44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="M44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="N44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="O44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="P44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="R44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="S44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="T44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="U44" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="V44" s="8" t="n">
+      <c r="B44" s="4">
+        <v>42</v>
+      </c>
+      <c r="C44" s="8">
+        <v>42</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <v>42</v>
+      </c>
+      <c r="F44" s="8">
+        <v>42</v>
+      </c>
+      <c r="G44" s="8">
+        <v>42</v>
+      </c>
+      <c r="H44" s="8">
+        <v>42</v>
+      </c>
+      <c r="I44" s="8">
+        <v>42</v>
+      </c>
+      <c r="J44" s="8">
+        <v>42</v>
+      </c>
+      <c r="K44" s="8">
+        <v>42</v>
+      </c>
+      <c r="L44" s="8">
+        <v>42</v>
+      </c>
+      <c r="M44" s="8">
+        <v>42</v>
+      </c>
+      <c r="N44" s="8">
+        <v>42</v>
+      </c>
+      <c r="O44" s="8">
+        <v>42</v>
+      </c>
+      <c r="P44" s="8">
+        <v>42</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>42</v>
+      </c>
+      <c r="R44" s="8">
+        <v>42</v>
+      </c>
+      <c r="S44" s="8">
+        <v>42</v>
+      </c>
+      <c r="T44" s="8">
+        <v>42</v>
+      </c>
+      <c r="U44" s="8">
+        <v>42</v>
+      </c>
+      <c r="V44" s="8">
         <v>14</v>
       </c>
-      <c r="W44" s="8" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W44" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="4">
         <v>43</v>
       </c>
       <c r="C45" s="7"/>
@@ -2406,42 +2681,35 @@
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>22</v>
-      </c>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
       <c r="B46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>